--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D66DFA-188D-464A-84E6-C1DB5ECABFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75466CAD-F1ED-4F21-9C73-D8D342ADDD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75466CAD-F1ED-4F21-9C73-D8D342ADDD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDABA699-E70F-464E-A5AC-009ECE79ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDABA699-E70F-464E-A5AC-009ECE79ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA2CE4D-DB2F-4597-A434-C0C69EBA5653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>taxPayerBrachNo</t>
   </si>
@@ -698,8 +698,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1011,9 +1011,7 @@
       <c r="BG2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BQ2" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="BQ2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA2CE4D-DB2F-4597-A434-C0C69EBA5653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E98DAD-6403-49E2-BFAE-55B18C8578D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E98DAD-6403-49E2-BFAE-55B18C8578D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750728A-B74A-4FE9-B14E-52F868809A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,14 +329,14 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -702,13 +702,13 @@
       <selection activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69">
       <c r="A2" t="s">
         <v>69</v>
       </c>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750728A-B74A-4FE9-B14E-52F868809A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B9908-EB71-456F-B0F1-6EF943930A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B9908-EB71-456F-B0F1-6EF943930A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6482E074-C957-4499-A33E-E3891DC122AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -399,9 +399,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +439,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +545,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A56A61-A5DA-46BF-B928-A7CAC47EC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A7F96-863C-4DE2-8FFA-487FE4DF71DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -399,9 +399,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +439,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +545,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A7F96-863C-4DE2-8FFA-487FE4DF71DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F893F3-A02D-473D-870A-589A5C47947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,14 +329,14 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -702,13 +702,13 @@
       <selection activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case7/Auto_Branch_Case7_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F893F3-A02D-473D-870A-589A5C47947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DC4D8D-52EE-47DC-A8F4-6E0F66C9C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
